--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/15/seed3/result_data_KNN.xlsx
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.896</v>
+        <v>-21.107</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.814</v>
+        <v>-20.945</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
